--- a/python/three/SD t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
+++ b/python/three/SD t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.55e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.254</t>
+          <t>0.0924</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.81e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,12 +503,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.12e+00</t>
+          <t>6.14e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.183</t>
+          <t>0.0998</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.47e+00</t>
+          <t>4.82e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.334</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.34e+00</t>
+          <t>5.35e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.343</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.35e+00</t>
+          <t>4.91e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.339</t>
+          <t>1.34</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.53e+00</t>
+          <t>2.07e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.58e+01</t>
+          <t>3.45e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>18.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.26e+00</t>
+          <t>2.99e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>139.0</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.62e+00</t>
+          <t>2.07e+00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.59e+01</t>
+          <t>3.44e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>18.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.37e+00</t>
+          <t>3.04e+00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>141.0</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.12e-02</t>
+          <t>1.95e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.73e-01</t>
+          <t>1.04e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.155</t>
+          <t>0.0599</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.56e-02</t>
+          <t>2.01e-01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.0509</t>
+          <t>0.116</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.17e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>7.75</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.52e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00193</t>
+          <t>0.000585</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -750,17 +750,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00183</t>
+          <t>0.000576</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.53e-01</t>
+          <t>9.51e-01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00209</t>
+          <t>0.00061</t>
         </is>
       </c>
     </row>

--- a/python/three/SD t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
+++ b/python/three/SD t1=6 t2=5 t3=4 δ1=0.17 δ2=0.5.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.98e+00</t>
+          <t>6.08e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0924</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>5.94e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.14e+00</t>
+          <t>5.90e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0998</t>
+          <t>0.0873</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.82e+00</t>
+          <t>5.05e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.417</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.35e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.343</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.91e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>74.3</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.07e+00</t>
+          <t>5.55e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.45e+00</t>
+          <t>6.19e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18.5</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.99e+00</t>
+          <t>9.49e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>27.5</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.07e+00</t>
+          <t>5.59e+00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.44e+00</t>
+          <t>6.25e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.04e+00</t>
+          <t>9.64e+00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>27.9</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.95e-01</t>
+          <t>1.14e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.04e-01</t>
+          <t>3.08e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0599</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.01e-01</t>
+          <t>3.81e-01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.116</t>
+          <t>1.11</t>
         </is>
       </c>
     </row>
@@ -693,32 +693,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>4.01e-01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>9.88e-02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>1.94e-01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.000585</t>
+          <t>0.000552</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -750,17 +750,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.000576</t>
+          <t>0.000518</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.51e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00061</t>
+          <t>0.000621</t>
         </is>
       </c>
     </row>
